--- a/Datos/Database by set/Set with text box/Xlsx sets/Born of the Gods Promos (PBNG).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Born of the Gods Promos (PBNG).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,357 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arbiter of the Ideal</t>
+          <t>('Arbiter of the Ideal', ['{4}{U}{U}', 'Creature — Sphinx', 'Flying', 'Inspired — Whenever Arbiter of the Ideal becomes untapped, reveal the top card of your library. If it’s an artifact, creature, or land card, you may put it onto the battlefield with a manifestation counter on it. That permanent is an enchantment in addition to its other types.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{U}{U}</t>
+          <t>('Eater of Hope', ['{5}{B}{B}', 'Creature — Demon', 'Flying', '{B}, Sacrifice another creature: Regenerate Eater of Hope.', '{2}{B}, Sacrifice two other creatures: Destroy target creature.', '6/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Sphinx</t>
+          <t>('Fated Conflagration', ['{1}{R}{R}{R}', 'Instant', 'Fated Conflagration deals 5 damage to target creature or planeswalker. If it’s your turn, scry 2. (Look at the top two cards of your library, then put any number of them on the bottom of your library and the rest on top in any order.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Forgestoker Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', '{1}{R}: Forgestoker Dragon deals 1 damage to target creature. That creature can’t block this combat. Activate this ability only if Forgestoker Dragon is attacking.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Inspired — Whenever Arbiter of the Ideal becomes untapped, reveal the top card of your library. If it’s an artifact, creature, or land card, you may put it onto the battlefield with a manifestation counter on it. That permanent is an enchantment in addition to its other types.</t>
+          <t>("Kiora's Follower", ['{G}{U}', 'Creature — Merfolk', '{T}: Untap another target permanent.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>('Nessian Wilds Ravager', ['{4}{G}{G}', 'Creature — Hydra', 'Tribute 6 (As this creature enters the battlefield, an opponent of your choice may put six +1/+1 counters on it.)', 'When Nessian Wilds Ravager enters the battlefield, if tribute wasn’t paid, you may have Nessian Wilds Ravager fight another target creature. (Each deals damage equal to its power to the other.)', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eater of Hope</t>
+          <t>('Pain Seer', ['{1}{B}', 'Creature — Human Wizard', 'Inspired — Whenever Pain Seer becomes untapped, reveal the top card of your library and put that card into your hand. You lose life equal to that card’s converted mana cost.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{5}{B}{B}</t>
+          <t>('Silent Sentinel', ['{5}{W}{W}', 'Creature — Archon', 'Flying', 'Whenever Silent Sentinel attacks, you may return target enchantment card from your graveyard to the battlefield.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{B}, Sacrifice another creature: Regenerate Eater of Hope.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}{B}, Sacrifice two other creatures: Destroy target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Fated Conflagration</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Fated Conflagration deals 5 damage to target creature or planeswalker. If it’s your turn, scry 2. (Look at the top two cards of your library, then put any number of them on the bottom of your library and the rest on top in any order.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Forgestoker Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{1}{R}: Forgestoker Dragon deals 1 damage to target creature. That creature can’t block this combat. Activate this ability only if Forgestoker Dragon is attacking.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>5/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Kiora's Follower</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{G}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Creature — Merfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{T}: Untap another target permanent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nessian Wilds Ravager</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Creature — Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Tribute 6 (As this creature enters the battlefield, an opponent of your choice may put six +1/+1 counters on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>When Nessian Wilds Ravager enters the battlefield, if tribute wasn’t paid, you may have Nessian Wilds Ravager fight another target creature. (Each deals damage equal to its power to the other.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Pain Seer</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Inspired — Whenever Pain Seer becomes untapped, reveal the top card of your library and put that card into your hand. You lose life equal to that card’s converted mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Silent Sentinel</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{5}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Creature — Archon</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Whenever Silent Sentinel attacks, you may return target enchantment card from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>4/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Tromokratis</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>{5}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Tromokratis has hexproof unless it’s attacking or blocking.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Tromokratis can’t be blocked unless all creatures defending player controls block it. (If any creature that player controls doesn’t block this creature, it can’t be blocked.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>8/8</t>
+          <t>('Tromokratis', ['{5}{U}{U}', 'Legendary Creature — Kraken', 'Tromokratis has hexproof unless it’s attacking or blocking.', 'Tromokratis can’t be blocked unless all creatures defending player controls block it. (If any creature that player controls doesn’t block this creature, it can’t be blocked.)', '8/8'])</t>
         </is>
       </c>
     </row>
